--- a/inf2_lab6.xlsx
+++ b/inf2_lab6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRep\SalovInf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9865D9-36C5-4BA0-879F-0040DA437C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="y">Sheet1!$B$4</definedName>
     <definedName name="ч">Sheet1!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,11 +363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,55 +375,59 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F1" s="1">
         <f ca="1">RANDBETWEEN(-313,313)</f>
-        <v>-226</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" ref="G1:I5" ca="1" si="0">RANDBETWEEN(-313,313)</f>
-        <v>291</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>-309</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>-68</v>
-      </c>
-      <c r="I1" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F2" s="1">
         <f t="shared" ref="F2:F5" ca="1" si="1">RANDBETWEEN(-313,313)</f>
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-70</v>
+        <v>-107</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-60</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>IF(OR(x+y&gt;30, ABS(x-y&lt;15)),x*y,x^2+y^2)</f>
+        <v>-18</v>
+      </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>-244</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-30</v>
+        <v>183</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -434,73 +437,79 @@
       <c r="B4">
         <v>-3</v>
       </c>
-      <c r="C4">
-        <f>IF(AND(x&gt;0,y&gt;0),x+y,IF(AND(x&lt;0,y&lt;0),ABS(x-y),IF(OR(x&lt;0,y&lt;0),ABS(6)+ABS(-3),None)))</f>
-        <v>9</v>
-      </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>-41</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>-293</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-106</v>
+        <v>-70</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-206</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>IF(AND(x&gt;=2,x&lt;10),"Принадлежит","Не принадлежит")</f>
+        <f>IF(AND(x&gt;=6,x&lt;10),"Принадлежит","Не принадлежит")</f>
         <v>Принадлежит</v>
+      </c>
+      <c r="C5">
+        <f>IF(AND(x&gt;0,y&gt;0),x+y,IF(AND(x&lt;0,y&lt;0),ABS(x-y),IF(OR(AND(x&gt;0, y&lt;0), AND(x&lt;0,y&gt;0)),ABS(x)+ABS(y),None)))</f>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-215</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-150</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-79</v>
+        <v>250</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F6" s="1">
         <f ca="1">COUNTIF(F1:I5,"&lt;9")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="A7">
         <f>y-x</f>
         <v>-9</v>
       </c>
+      <c r="B7">
+        <f>IF(A7&lt;0,x^2,-(y)^2)</f>
+        <v>36</v>
+      </c>
       <c r="G7" s="1" t="str">
         <f ca="1">"Наибольшее значение: "&amp;MAX(F1:I5)</f>
-        <v>Наибольшее значение: 298</v>
+        <v>Наибольшее значение: 250</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <f>IF(x&gt;-9,-y^2,x^2)</f>
-        <v>9</v>
-      </c>
       <c r="G8" s="1" t="str">
         <f ca="1">"Наименьшее значение: "&amp;MIN(F1:I5)</f>
-        <v>Наименьшее значение: -226</v>
+        <v>Наименьшее значение: -309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f ca="1">AVERAGE(F1:I5)</f>
+        <v>-48.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
